--- a/Input/Now_Health_SimpleCare_ROW/benefits1.xlsx
+++ b/Input/Now_Health_SimpleCare_ROW/benefits1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -285,29 +285,16 @@
     <t xml:space="preserve">20% co-pay</t>
   </si>
   <si>
+    <t xml:space="preserve">Residents of South East Asia (excluding Indonesia and Singapore)- South East Asia (excluding Singapore)</t>
+  </si>
+  <si>
     <t xml:space="preserve">single</t>
   </si>
   <si>
     <t xml:space="preserve">IP</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-1/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 500</t>
-    </r>
+    <t xml:space="preserve">ip-option-1/USD 500</t>
   </si>
   <si>
     <t xml:space="preserve">SimpleCare 100</t>
@@ -348,6 +335,9 @@
   </si>
   <si>
     <t xml:space="preserve">USD 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residents of South East Asia (excluding Indonesia and Singapore)- Worldwide excluding USA</t>
   </si>
   <si>
     <t xml:space="preserve">OP</t>
@@ -392,155 +382,43 @@
     <t xml:space="preserve">USD 150</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-3/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 150</t>
-    </r>
+    <t xml:space="preserve">ip-option-3/USD 150</t>
   </si>
   <si>
     <t xml:space="preserve">USD 250</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-4/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 250</t>
-    </r>
+    <t xml:space="preserve">ip-option-4/USD 250</t>
   </si>
   <si>
     <t xml:space="preserve">USD 1,000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-5/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 1,000</t>
-    </r>
+    <t xml:space="preserve">ip-option-5/USD 1,000</t>
   </si>
   <si>
     <t xml:space="preserve">USD 2,500</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-6/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 2,500</t>
-    </r>
+    <t xml:space="preserve">ip-option-6/USD 2,500</t>
   </si>
   <si>
     <t xml:space="preserve">USD 5,000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-7/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 5,000</t>
-    </r>
+    <t xml:space="preserve">ip-option-7/USD 5,000</t>
   </si>
   <si>
     <t xml:space="preserve">USD 10,000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-8/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 10,000</t>
-    </r>
+    <t xml:space="preserve">ip-option-8/USD 10,000</t>
   </si>
   <si>
     <t xml:space="preserve">USD 15,000</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ip-option-9/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">USD 15,000</t>
-    </r>
+    <t xml:space="preserve">ip-option-9/USD 15,000</t>
   </si>
 </sst>
 </file>
@@ -551,7 +429,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -587,13 +465,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -639,7 +513,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -676,10 +550,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,11 +569,11 @@
   </sheetPr>
   <dimension ref="A1:BN10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BN1" activeCellId="0" sqref="BN:BN"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BK3" activeCellId="0" sqref="BK3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="119.26"/>
@@ -714,6 +584,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="0" width="26.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="0" width="83.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="0" width="33.13"/>
   </cols>
   <sheetData>
@@ -1067,24 +938,24 @@
         <v>83</v>
       </c>
       <c r="BK2" s="6" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="BL2" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="BM2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="BN2" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="BN2" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>63</v>
@@ -1097,7 +968,7 @@
         <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>67</v>
@@ -1119,39 +990,39 @@
         <v>69</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="2" t="s">
@@ -1165,16 +1036,16 @@
         <v>66</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>75</v>
@@ -1221,25 +1092,27 @@
       <c r="BG3" s="4"/>
       <c r="BH3" s="4"/>
       <c r="BI3" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BJ3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BK3" s="4"/>
+        <v>100</v>
+      </c>
+      <c r="BK3" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="BM3" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="BN3" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="429.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>63</v>
@@ -1252,7 +1125,7 @@
         <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>67</v>
@@ -1274,62 +1147,62 @@
         <v>69</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AE4" s="3"/>
       <c r="AF4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>75</v>
@@ -1357,7 +1230,7 @@
       <c r="AV4" s="3"/>
       <c r="AW4" s="3"/>
       <c r="AX4" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AY4" s="3"/>
       <c r="AZ4" s="3"/>
@@ -1378,12 +1251,12 @@
       <c r="BG4" s="4"/>
       <c r="BH4" s="4"/>
       <c r="BI4" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="BJ4" s="4"/>
       <c r="BK4" s="4"/>
-      <c r="BN4" s="7" t="s">
-        <v>110</v>
+      <c r="BN4" s="4" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1441,12 +1314,12 @@
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
       <c r="BI5" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
-      <c r="BN5" s="7" t="s">
-        <v>112</v>
+      <c r="BN5" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1504,45 +1377,45 @@
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
       <c r="BI6" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="BJ6" s="4"/>
       <c r="BK6" s="4"/>
-      <c r="BN6" s="7" t="s">
-        <v>114</v>
+      <c r="BN6" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BI7" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="BJ7" s="4"/>
-      <c r="BN7" s="7" t="s">
-        <v>116</v>
+      <c r="BN7" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BI8" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="BN8" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="BN8" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BI9" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN9" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="BN9" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BI10" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN10" s="9" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="BN10" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/Input/Now_Health_SimpleCare_ROW/benefits1.xlsx
+++ b/Input/Now_Health_SimpleCare_ROW/benefits1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="118">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -294,9 +294,6 @@
     <t xml:space="preserve">IP</t>
   </si>
   <si>
-    <t xml:space="preserve">ip-option-1/USD 500</t>
-  </si>
-  <si>
     <t xml:space="preserve">SimpleCare 100</t>
   </si>
   <si>
@@ -343,7 +340,7 @@
     <t xml:space="preserve">OP</t>
   </si>
   <si>
-    <t xml:space="preserve">ip-option-2/Nil</t>
+    <t xml:space="preserve">op-option-1/20% co-pay</t>
   </si>
   <si>
     <t xml:space="preserve">SimpleCare 250</t>
@@ -382,43 +379,25 @@
     <t xml:space="preserve">USD 150</t>
   </si>
   <si>
-    <t xml:space="preserve">ip-option-3/USD 150</t>
+    <t xml:space="preserve">op-option-2/USD 25</t>
   </si>
   <si>
     <t xml:space="preserve">USD 250</t>
   </si>
   <si>
-    <t xml:space="preserve">ip-option-4/USD 250</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD 1,000</t>
   </si>
   <si>
-    <t xml:space="preserve">ip-option-5/USD 1,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD 2,500</t>
   </si>
   <si>
-    <t xml:space="preserve">ip-option-6/USD 2,500</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD 5,000</t>
   </si>
   <si>
-    <t xml:space="preserve">ip-option-7/USD 5,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD 10,000</t>
   </si>
   <si>
-    <t xml:space="preserve">ip-option-8/USD 10,000</t>
-  </si>
-  <si>
     <t xml:space="preserve">USD 15,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip-option-9/USD 15,000</t>
   </si>
 </sst>
 </file>
@@ -429,7 +408,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -463,12 +442,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -513,7 +486,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -542,10 +515,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -569,11 +538,11 @@
   </sheetPr>
   <dimension ref="A1:BN10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BK3" activeCellId="0" sqref="BK3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BN2" activeCellId="0" sqref="BN2:BN4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="119.26"/>
@@ -946,16 +915,16 @@
       <c r="BM2" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BN2" s="4" t="s">
+      <c r="BN2" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>63</v>
@@ -968,7 +937,7 @@
         <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>67</v>
@@ -990,39 +959,39 @@
         <v>69</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="2" t="s">
@@ -1036,16 +1005,16 @@
         <v>66</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>75</v>
@@ -1092,27 +1061,27 @@
       <c r="BG3" s="4"/>
       <c r="BH3" s="4"/>
       <c r="BI3" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BK3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="BK3" s="7" t="s">
+      <c r="BM3" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="BM3" s="3" t="s">
+      <c r="BN3" s="0" t="s">
         <v>102</v>
-      </c>
-      <c r="BN3" s="0" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="429.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>63</v>
@@ -1125,7 +1094,7 @@
         <v>65</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>67</v>
@@ -1147,62 +1116,62 @@
         <v>69</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="AE4" s="3"/>
       <c r="AF4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>75</v>
@@ -1230,7 +1199,7 @@
       <c r="AV4" s="3"/>
       <c r="AW4" s="3"/>
       <c r="AX4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AY4" s="3"/>
       <c r="AZ4" s="3"/>
@@ -1251,20 +1220,20 @@
       <c r="BG4" s="4"/>
       <c r="BH4" s="4"/>
       <c r="BI4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BJ4" s="4"/>
       <c r="BK4" s="4"/>
-      <c r="BN4" s="4" t="s">
-        <v>112</v>
+      <c r="BN4" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="7"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1274,7 +1243,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="8"/>
+      <c r="O5" s="7"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -1282,52 +1251,50 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
-      <c r="W5" s="8"/>
+      <c r="W5" s="7"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-      <c r="AB5" s="8"/>
+      <c r="AB5" s="7"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
-      <c r="AE5" s="8"/>
+      <c r="AE5" s="7"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="4"/>
       <c r="AJ5" s="4"/>
       <c r="AK5" s="4"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
       <c r="AN5" s="4"/>
       <c r="AO5" s="4"/>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
       <c r="AR5" s="5"/>
       <c r="AS5" s="5"/>
       <c r="AT5" s="4"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
       <c r="AW5" s="4"/>
       <c r="BE5" s="4"/>
       <c r="BF5" s="5"/>
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
       <c r="BI5" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
-      <c r="BN5" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="BN5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="7"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1337,7 +1304,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
-      <c r="O6" s="8"/>
+      <c r="O6" s="7"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -1345,78 +1312,68 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
-      <c r="W6" s="8"/>
+      <c r="W6" s="7"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="8"/>
+      <c r="AB6" s="7"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="7"/>
       <c r="AF6" s="4"/>
       <c r="AG6" s="4"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="4"/>
       <c r="AJ6" s="4"/>
       <c r="AK6" s="4"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
       <c r="AN6" s="4"/>
       <c r="AO6" s="4"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
       <c r="AR6" s="5"/>
       <c r="AS6" s="5"/>
       <c r="AT6" s="4"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
       <c r="AW6" s="4"/>
       <c r="BE6" s="4"/>
       <c r="BF6" s="5"/>
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
       <c r="BI6" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BJ6" s="4"/>
       <c r="BK6" s="4"/>
-      <c r="BN6" s="4" t="s">
+      <c r="BN6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BI7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BJ7" s="4"/>
+      <c r="BN7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BI8" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="BN8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BI9" s="0" t="s">
         <v>116</v>
       </c>
+      <c r="BN9" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI7" s="4" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="BI10" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="BJ7" s="4"/>
-      <c r="BN7" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI8" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN8" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.9" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI9" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="BN9" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="BI10" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="BN10" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="BN10" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Input/Now_Health_SimpleCare_ROW/benefits1.xlsx
+++ b/Input/Now_Health_SimpleCare_ROW/benefits1.xlsx
@@ -15,16 +15,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="120">
   <si>
     <t>PlanName</t>
   </si>
@@ -302,9 +297,6 @@
   </si>
   <si>
     <t>USD 1,500,000</t>
-  </si>
-  <si>
-    <t>Covered up to USD 1,000</t>
   </si>
   <si>
     <t>Covered with sub-limits up to USD 150,000 with $ deductible</t>
@@ -398,92 +390,26 @@
     <t>USD 15,000</t>
   </si>
   <si>
-    <t>USD 500/USD 500</t>
-  </si>
-  <si>
-    <t>USD Nil/USD Nil</t>
-  </si>
-  <si>
-    <t>USD 150/USD 150</t>
-  </si>
-  <si>
-    <t>USD 250/USD 250</t>
-  </si>
-  <si>
-    <t>USD 1,000/USD 1,000</t>
-  </si>
-  <si>
-    <t>USD 2,500/USD 2,500</t>
-  </si>
-  <si>
-    <t>USD 5,000/USD 5,000</t>
-  </si>
-  <si>
-    <t>USD 10,000/USD 10,000</t>
-  </si>
-  <si>
-    <t>USD 15,000/USD 15,000</t>
-  </si>
-  <si>
-    <t>GBP 310/GBP 310</t>
-  </si>
-  <si>
-    <t>GBP Nil/GBP Nil</t>
-  </si>
-  <si>
-    <t>GBP 95/GBP 95</t>
-  </si>
-  <si>
-    <t>GBP 155/GBP 155</t>
-  </si>
-  <si>
-    <t>GBP 625/GBP 625</t>
-  </si>
-  <si>
-    <t>GBP 1,550/GBP 1,550</t>
-  </si>
-  <si>
-    <t>GBP 3,125/GBP 3,125</t>
-  </si>
-  <si>
-    <t>GBP 6,250/GBP 6,250</t>
-  </si>
-  <si>
-    <t>GBP 9,375/GBP 9,375</t>
-  </si>
-  <si>
-    <t>EUR 400/EUR 400</t>
-  </si>
-  <si>
-    <t>EUR Nil/EUR Nil</t>
-  </si>
-  <si>
-    <t>EUR 120/EUR 120</t>
-  </si>
-  <si>
-    <t>EUR 200/EUR 200</t>
-  </si>
-  <si>
-    <t>EUR 800/EUR 800</t>
-  </si>
-  <si>
-    <t>EUR 2,000/EUR 2,000</t>
-  </si>
-  <si>
-    <t>EUR 4,000/EUR 4,000</t>
-  </si>
-  <si>
-    <t>EUR 8,000/EUR 8,000</t>
-  </si>
-  <si>
-    <t>EUR 12,000/EUR 12,000</t>
+    <t>20% co-pay/20% co-pay</t>
+  </si>
+  <si>
+    <t>USD 25 excess/USD 25 excess</t>
+  </si>
+  <si>
+    <t>GBP 15 excess/GBP 15 excess</t>
+  </si>
+  <si>
+    <t>EUR 20 excess/EUR 20 excess</t>
+  </si>
+  <si>
+    <t>Covered up to USD 2,500 $ co-pay/excess</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -509,16 +435,28 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -526,11 +464,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -550,9 +504,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -832,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="BN3" sqref="BN3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1210,7 +1167,7 @@
         <v>86</v>
       </c>
       <c r="BN2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:66" ht="115.5" x14ac:dyDescent="0.25">
@@ -1230,8 +1187,8 @@
       <c r="F3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>89</v>
+      <c r="G3" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>67</v>
@@ -1253,39 +1210,39 @@
         <v>69</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y3" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB3" s="3"/>
       <c r="AC3" s="2" t="s">
@@ -1299,16 +1256,16 @@
         <v>66</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="AJ3" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>75</v>
@@ -1355,24 +1312,24 @@
       <c r="BG3" s="4"/>
       <c r="BH3" s="4"/>
       <c r="BI3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ3" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BK3" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="BK3" s="6" t="s">
+      <c r="BM3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="BM3" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="BN3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:66" ht="409.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>88</v>
@@ -1387,8 +1344,8 @@
       <c r="F4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>89</v>
+      <c r="G4" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>67</v>
@@ -1410,62 +1367,62 @@
         <v>69</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y4" s="2" t="s">
         <v>72</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AB4" s="3"/>
       <c r="AC4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="AE4" s="3"/>
       <c r="AF4" s="2" t="s">
         <v>66</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AK4" s="2" t="s">
         <v>75</v>
@@ -1493,7 +1450,7 @@
       <c r="AV4" s="3"/>
       <c r="AW4" s="3"/>
       <c r="AX4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AY4" s="3"/>
       <c r="AZ4" s="3"/>
@@ -1514,12 +1471,12 @@
       <c r="BG4" s="4"/>
       <c r="BH4" s="4"/>
       <c r="BI4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BJ4" s="4"/>
       <c r="BK4" s="4"/>
       <c r="BN4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
@@ -1577,12 +1534,12 @@
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
       <c r="BI5" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
       <c r="BN5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
@@ -1640,136 +1597,64 @@
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
       <c r="BI6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BJ6" s="4"/>
       <c r="BK6" s="4"/>
       <c r="BN6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="BI7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ7" s="4"/>
       <c r="BN7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="BI8" t="s">
-        <v>113</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:66" hidden="1" x14ac:dyDescent="0.2">
       <c r="BI9" t="s">
-        <v>114</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="BI10" t="s">
-        <v>115</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN12" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN14" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
-      <c r="BN16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="66:66" x14ac:dyDescent="0.2">
-      <c r="BN17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="66:66" x14ac:dyDescent="0.2">
-      <c r="BN18" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="66:66" x14ac:dyDescent="0.2">
-      <c r="BN19" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN20" s="8" t="s">
-        <v>134</v>
-      </c>
+      <c r="BN20" s="8"/>
     </row>
     <row r="21" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN21" s="8" t="s">
-        <v>135</v>
-      </c>
+      <c r="BN21" s="8"/>
     </row>
     <row r="22" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN22" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="BN22" s="8"/>
     </row>
     <row r="23" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN23" s="8" t="s">
-        <v>137</v>
-      </c>
+      <c r="BN23" s="8"/>
     </row>
     <row r="24" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN24" s="8" t="s">
-        <v>138</v>
-      </c>
+      <c r="BN24" s="8"/>
     </row>
     <row r="25" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN25" s="8" t="s">
-        <v>139</v>
-      </c>
+      <c r="BN25" s="8"/>
     </row>
     <row r="26" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN26" s="8" t="s">
-        <v>140</v>
-      </c>
+      <c r="BN26" s="8"/>
     </row>
     <row r="27" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN27" s="8" t="s">
-        <v>141</v>
-      </c>
+      <c r="BN27" s="8"/>
     </row>
     <row r="28" spans="66:66" ht="15" x14ac:dyDescent="0.2">
-      <c r="BN28" s="8" t="s">
-        <v>142</v>
-      </c>
+      <c r="BN28" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Input/Now_Health_SimpleCare_ROW/benefits1.xlsx
+++ b/Input/Now_Health_SimpleCare_ROW/benefits1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="119">
   <si>
     <t xml:space="preserve">PlanName</t>
   </si>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">USD 1,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Residents of South East Asia (excluding Indonesia and Singapore)- South East Asia (excluding Singapore)/Residents of South East Asia (excluding Indonesia and Singapore)- Worldwide excluding USA</t>
+    <t xml:space="preserve">Residents of South East Asia (excluding Indonesia and Singapore)- South East Asia (excluding Singapore)/Residents of South East Asia (excluding Indonesia and Singapore)- Worldwide excluding USA/Residents in the rest of the world- Worldwide Excluding USA</t>
   </si>
   <si>
     <t xml:space="preserve">Residents of South East Asia (excluding Indonesia and Singapore)- SimpleCare South East Asia Network/Residents of South East Asia (excluding Indonesia and Singapore)- SimpleCare South East Asia Network &amp; SimpleCare Comprehensive Network</t>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t xml:space="preserve">USD 150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residents in the rest of the world- Worldwide Excluding USA</t>
   </si>
   <si>
     <t xml:space="preserve">op-option-2/USD 25</t>
@@ -486,7 +489,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -519,6 +522,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,11 +545,11 @@
   </sheetPr>
   <dimension ref="A1:BN10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BI1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BN2" activeCellId="0" sqref="BN2:BN4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.83984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="119.26"/>
@@ -919,7 +926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="102.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
@@ -1076,7 +1083,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="429.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="404.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>103</v>
       </c>
@@ -1223,9 +1230,11 @@
         <v>110</v>
       </c>
       <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
+      <c r="BK4" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="BN4" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1283,7 +1292,7 @@
       <c r="BG5" s="4"/>
       <c r="BH5" s="4"/>
       <c r="BI5" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BJ5" s="4"/>
       <c r="BK5" s="4"/>
@@ -1344,7 +1353,7 @@
       <c r="BG6" s="4"/>
       <c r="BH6" s="4"/>
       <c r="BI6" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BJ6" s="4"/>
       <c r="BK6" s="4"/>
@@ -1352,27 +1361,28 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BI7" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BJ7" s="4"/>
       <c r="BN7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BI8" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BN8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BI9" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BN9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="BI10" s="0" t="s">
-        <v>117</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="BK10" s="8"/>
       <c r="BN10" s="3"/>
     </row>
   </sheetData>
